--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-393098.3471170088</v>
+        <v>-394985.9286334107</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>466677.0060964965</v>
+        <v>162441.065908463</v>
       </c>
     </row>
     <row r="8">
@@ -662,16 +662,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>289.4857564397451</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>24.05696454450569</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>88.85876175969173</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.693200015577881</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>70.3971406769837</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>40.91389206607241</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>133.213740718609</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,10 +1139,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>404.7251539161456</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>116.656332317298</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>41.65592056208442</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>156.1271626621474</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>163.1406881958608</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>238.7819515279647</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>66.90445977359147</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>137.0423411920733</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,16 +1819,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>12.5158505227104</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,13 +2059,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>147.5295163971355</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2138,10 +2138,10 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>62.0961758931858</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>169.7572882889412</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I23" t="n">
         <v>81.77913505274074</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>5.893763769137678</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U25" t="n">
-        <v>259.3061888821585</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>76.16849689774368</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2770,16 +2770,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>36.88234405457732</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965533</v>
+        <v>93.41221638965524</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801206</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437422</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>96.96679400649187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389791</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>56.36022177986535</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692825</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415142</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1293.690638606345</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C2" t="n">
-        <v>924.728121665933</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762915</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2672.849126831853</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2454.214459803916</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2454.214459803916</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>2123.151572460345</v>
       </c>
       <c r="W2" t="n">
-        <v>2057.295728843236</v>
+        <v>2123.151572460345</v>
       </c>
       <c r="X2" t="n">
-        <v>1683.829970582156</v>
+        <v>1749.685814199265</v>
       </c>
       <c r="Y2" t="n">
-        <v>1293.690638606345</v>
+        <v>1359.546482223453</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4407,19 +4407,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4519,19 +4519,19 @@
         <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>211.6471865296039</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>211.6471865296039</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>211.6471865296039</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X4" t="n">
-        <v>211.6471865296039</v>
+        <v>411.0644718652463</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.8560754027576</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1251.855211652197</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C5" t="n">
-        <v>882.8926947117852</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2655.821927315119</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2655.821927315119</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2402.06014195321</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2402.06014195321</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W5" t="n">
-        <v>2402.06014195321</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="X5" t="n">
-        <v>2028.59438369213</v>
+        <v>1816.442957727742</v>
       </c>
       <c r="Y5" t="n">
-        <v>1638.455051716319</v>
+        <v>1816.442957727742</v>
       </c>
     </row>
     <row r="6">
@@ -4644,13 +4644,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>188.5023158795654</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>188.5023158795654</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>188.5023158795654</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>188.5023158795654</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>571.3497027553424</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>188.5023158795654</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1761.414268258236</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C8" t="n">
-        <v>1392.451751317824</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D8" t="n">
-        <v>1034.186052711073</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>1034.186052711073</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
         <v>625.3727659270879</v>
@@ -4799,55 +4799,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="W8" t="n">
-        <v>2134.880026519315</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="X8" t="n">
-        <v>1761.414268258236</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="Y8" t="n">
-        <v>1761.414268258236</v>
+        <v>2149.375138862102</v>
       </c>
     </row>
     <row r="9">
@@ -4857,73 +4857,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>773.5003462121382</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6471865296043</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6471865296043</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6471865296043</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6471865296043</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6471865296043</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750363</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>211.6471865296043</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>211.6471865296043</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W10" t="n">
-        <v>211.6471865296043</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X10" t="n">
-        <v>211.6471865296043</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.6471865296043</v>
+        <v>246.1363086691491</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>469.5954827887337</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>699.5585886570829</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M12" t="n">
-        <v>1019.893908186785</v>
+        <v>1672.759814717971</v>
       </c>
       <c r="N12" t="n">
-        <v>1364.414563824403</v>
+        <v>2017.280470355589</v>
       </c>
       <c r="O12" t="n">
-        <v>2033.878325127062</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>563.1598612984388</v>
+        <v>565.9270610048576</v>
       </c>
       <c r="C13" t="n">
-        <v>394.223678370532</v>
+        <v>565.9270610048576</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925218</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925218</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925218</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609662</v>
+        <v>1223.052593184514</v>
       </c>
       <c r="V13" t="n">
-        <v>986.0022165609662</v>
+        <v>968.3681049786275</v>
       </c>
       <c r="W13" t="n">
-        <v>744.8083261286786</v>
+        <v>968.3681049786275</v>
       </c>
       <c r="X13" t="n">
-        <v>744.8083261286786</v>
+        <v>968.3681049786275</v>
       </c>
       <c r="Y13" t="n">
-        <v>744.8083261286786</v>
+        <v>747.5755258350973</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G14" t="n">
         <v>488.1932370805469</v>
@@ -5273,16 +5273,16 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515098</v>
@@ -5291,37 +5291,37 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>327.180197328635</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M15" t="n">
-        <v>647.5155168583368</v>
+        <v>1529.564517825232</v>
       </c>
       <c r="N15" t="n">
-        <v>1138.699705022018</v>
+        <v>1874.08517346285</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>164.797353857853</v>
+        <v>515.3536117832383</v>
       </c>
       <c r="C16" t="n">
-        <v>164.797353857853</v>
+        <v>515.3536117832383</v>
       </c>
       <c r="D16" t="n">
-        <v>164.797353857853</v>
+        <v>515.3536117832383</v>
       </c>
       <c r="E16" t="n">
-        <v>164.797353857853</v>
+        <v>515.3536117832383</v>
       </c>
       <c r="F16" t="n">
-        <v>164.797353857853</v>
+        <v>515.3536117832383</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>347.1782901030589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557902</v>
@@ -5464,22 +5464,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247856</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383438</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V16" t="n">
-        <v>675.0071030383438</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W16" t="n">
-        <v>385.5899330013831</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X16" t="n">
-        <v>385.5899330013831</v>
+        <v>736.1461909267684</v>
       </c>
       <c r="Y16" t="n">
-        <v>164.797353857853</v>
+        <v>515.3536117832383</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,34 +5498,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643324</v>
@@ -5534,31 +5534,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5746515181232</v>
+        <v>495.7418540215911</v>
       </c>
       <c r="L18" t="n">
-        <v>836.4717212750119</v>
+        <v>1109.63892377848</v>
       </c>
       <c r="M18" t="n">
-        <v>1604.839867667473</v>
+        <v>1429.974243308181</v>
       </c>
       <c r="N18" t="n">
-        <v>2192.176613678825</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O18" t="n">
-        <v>2440.930027762787</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>524.5778132641557</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C19" t="n">
-        <v>355.6416303362488</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D19" t="n">
-        <v>355.6416303362488</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>355.6416303362488</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1486.273997302639</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1262.488582092145</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>973.3599433057032</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>973.3599433057032</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="W19" t="n">
-        <v>973.3599433057032</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="X19" t="n">
-        <v>745.3703924076858</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="Y19" t="n">
-        <v>524.5778132641557</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5771,19 +5771,19 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L21" t="n">
-        <v>473.8437298546979</v>
+        <v>340.9799392532613</v>
       </c>
       <c r="M21" t="n">
-        <v>794.1790493843997</v>
+        <v>661.315258782963</v>
       </c>
       <c r="N21" t="n">
-        <v>1138.699705022018</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>528.105874218302</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799364</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1436.192860564785</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1212.407445354291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>923.2788065678494</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>668.5943183619626</v>
+        <v>1038.315623398793</v>
       </c>
       <c r="W22" t="n">
-        <v>668.5943183619626</v>
+        <v>748.8984533618321</v>
       </c>
       <c r="X22" t="n">
-        <v>668.5943183619626</v>
+        <v>748.8984533618321</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.8017392184324</v>
+        <v>528.105874218302</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
@@ -5975,25 +5975,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6008,31 +6008,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>578.5528938194191</v>
       </c>
       <c r="M24" t="n">
-        <v>2056.693778606511</v>
+        <v>1346.921040211881</v>
       </c>
       <c r="N24" t="n">
-        <v>2103.272883640391</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.272883640391</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>244.1070389581962</v>
+        <v>383.6411625027483</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581962</v>
+        <v>214.7049795748412</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1236.990827242591</v>
+        <v>786.0822064765182</v>
       </c>
       <c r="V25" t="n">
-        <v>982.3063390367043</v>
+        <v>786.0822064765182</v>
       </c>
       <c r="W25" t="n">
-        <v>692.8891689997437</v>
+        <v>786.0822064765182</v>
       </c>
       <c r="X25" t="n">
-        <v>464.8996181017263</v>
+        <v>786.0822064765182</v>
       </c>
       <c r="Y25" t="n">
-        <v>244.1070389581962</v>
+        <v>565.2896273329881</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M27" t="n">
-        <v>2056.693778606511</v>
+        <v>783.5490372870996</v>
       </c>
       <c r="N27" t="n">
-        <v>2623.573505376138</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O27" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>472.4860691490222</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>472.4860691490222</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>395.5481934947357</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>874.9271131227921</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V28" t="n">
-        <v>874.9271131227921</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W28" t="n">
-        <v>874.9271131227921</v>
+        <v>494.14282528621</v>
       </c>
       <c r="X28" t="n">
-        <v>874.9271131227921</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y28" t="n">
-        <v>654.134533979262</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6461,7 +6461,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6473,7 +6473,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>310.2903082103524</v>
       </c>
       <c r="M30" t="n">
-        <v>2056.693778606511</v>
+        <v>1078.658454602814</v>
       </c>
       <c r="N30" t="n">
-        <v>2103.272883640391</v>
+        <v>1423.179110240432</v>
       </c>
       <c r="O30" t="n">
-        <v>2103.272883640391</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>602.9488650238212</v>
+        <v>494.8466681110233</v>
       </c>
       <c r="C31" t="n">
-        <v>489.773547377285</v>
+        <v>381.6713504644873</v>
       </c>
       <c r="D31" t="n">
-        <v>395.4177732463201</v>
+        <v>287.3155763335224</v>
       </c>
       <c r="E31" t="n">
-        <v>395.4177732463201</v>
+        <v>195.1633480324999</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297804</v>
+        <v>195.1633480324999</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309718</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933499</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667506</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962048</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252997</v>
+        <v>1791.966918252998</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323873</v>
+        <v>1623.942368323874</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818802</v>
+        <v>1390.574594818804</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894286</v>
+        <v>1191.650971894288</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386958</v>
+        <v>957.9946671386977</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220493</v>
+        <v>785.7659815220511</v>
       </c>
       <c r="Y31" t="n">
-        <v>728.8364645726901</v>
+        <v>620.734267659892</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,25 +6698,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>248.1505154596173</v>
       </c>
       <c r="K33" t="n">
-        <v>508.1073603047985</v>
+        <v>373.5080755174547</v>
       </c>
       <c r="L33" t="n">
-        <v>508.1073603047985</v>
+        <v>987.4051452743433</v>
       </c>
       <c r="M33" t="n">
-        <v>508.1073603047985</v>
+        <v>1307.740464804045</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
         <v>221.529509210313</v>
@@ -6853,7 +6853,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,28 +6880,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028583</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028583</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M36" t="n">
-        <v>417.5524109899876</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="N36" t="n">
-        <v>1138.699705022018</v>
+        <v>1667.648898594694</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7151,31 +7151,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,37 +7184,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028587</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M39" t="n">
-        <v>417.5524109899877</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022018</v>
+        <v>1949.360523305091</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2198.113937389053</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
         <v>559.3441472229672</v>
@@ -7318,10 +7318,10 @@
         <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7333,10 +7333,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7403,37 +7403,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7494,22 +7494,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>904.39166832551</v>
       </c>
       <c r="N42" t="n">
-        <v>2623.573505376138</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7582,10 +7582,10 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
         <v>2038.520840384657</v>
@@ -7594,25 +7594,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>688.9285765597825</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>1009.263896089484</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8781,13 +8781,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>218.7198820075775</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9021,7 +9021,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9720,22 +9720,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>209.7114843400969</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>178.3913131276568</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,22 +9957,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>420.3579500657568</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,16 +10194,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>227.1560532063683</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>178.3913131276568</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10431,10 +10431,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,10 +10902,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -11145,19 +11145,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11388,13 +11388,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>123.0966642027165</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>47.74104680862627</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>99.58910868978612</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>11.87148717546282</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>185.4049594608929</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>104.6081269266925</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,19 +24175,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>135.8246340904174</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>82.38035503488678</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>142.7217092490747</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,22 +24412,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>26.93116351641883</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>72.44697612046868</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>249.6406542820137</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801214</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437413</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>14.3235178283286</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897901</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571497</v>
+        <v>55.21598883571487</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523578</v>
+        <v>54.76109577523567</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>107.0211749436724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>7.602807272633072e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1153535.726226241</v>
+        <v>1153535.726226242</v>
       </c>
     </row>
     <row r="9">
@@ -26314,22 +26314,22 @@
         <v>225786.486712678</v>
       </c>
       <c r="C2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126779</v>
       </c>
       <c r="D2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126779</v>
       </c>
       <c r="E2" t="n">
+        <v>215065.9828557399</v>
+      </c>
+      <c r="F2" t="n">
+        <v>215065.9828557399</v>
+      </c>
+      <c r="G2" t="n">
         <v>215065.9828557398</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>215065.9828557398</v>
-      </c>
-      <c r="G2" t="n">
-        <v>215065.9828557399</v>
-      </c>
-      <c r="H2" t="n">
-        <v>215065.9828557397</v>
       </c>
       <c r="I2" t="n">
         <v>215065.9828557399</v>
@@ -26347,10 +26347,10 @@
         <v>225786.4867126781</v>
       </c>
       <c r="N2" t="n">
+        <v>225786.4867126782</v>
+      </c>
+      <c r="O2" t="n">
         <v>225786.4867126781</v>
-      </c>
-      <c r="O2" t="n">
-        <v>225786.4867126782</v>
       </c>
       <c r="P2" t="n">
         <v>225786.4867126782</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.60530284569</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086688</v>
+        <v>10342.90680086682</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284572</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
         <v>787.7936905758694</v>
@@ -26430,34 +26430,34 @@
         <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
+        <v>787.7936905758488</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758436</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905758411</v>
+      </c>
+      <c r="J4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="H4" t="n">
-        <v>787.793690575885</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758694</v>
-      </c>
       <c r="K4" t="n">
-        <v>18952.4162047724</v>
+        <v>18952.41620477243</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189634</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23206.58093189634</v>
+      </c>
+      <c r="N4" t="n">
         <v>23206.58093189636</v>
       </c>
-      <c r="M4" t="n">
-        <v>23206.58093189639</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>23206.58093189634</v>
       </c>
-      <c r="O4" t="n">
-        <v>23206.58093189636</v>
-      </c>
       <c r="P4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189635</v>
       </c>
     </row>
     <row r="5">
@@ -26473,16 +26473,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26497,16 +26497,16 @@
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26522,46 +26522,46 @@
         <v>-586099.6097458949</v>
       </c>
       <c r="C6" t="n">
-        <v>3868.269468649494</v>
+        <v>3868.269468649407</v>
       </c>
       <c r="D6" t="n">
-        <v>3868.269468649436</v>
+        <v>3868.269468649407</v>
       </c>
       <c r="E6" t="n">
-        <v>-402869.1732604486</v>
+        <v>-402966.6323864209</v>
       </c>
       <c r="F6" t="n">
-        <v>122290.8632164473</v>
+        <v>122193.4040904753</v>
       </c>
       <c r="G6" t="n">
-        <v>122290.8632164474</v>
+        <v>122193.4040904751</v>
       </c>
       <c r="H6" t="n">
-        <v>122290.8632164472</v>
+        <v>122193.4040904752</v>
       </c>
       <c r="I6" t="n">
-        <v>122290.8632164474</v>
+        <v>122193.4040904753</v>
       </c>
       <c r="J6" t="n">
-        <v>-54132.3559761456</v>
+        <v>-54229.81510211773</v>
       </c>
       <c r="K6" t="n">
-        <v>64008.94550205773</v>
+        <v>63990.45176412328</v>
       </c>
       <c r="L6" t="n">
-        <v>94521.8931598895</v>
+        <v>94521.89315988957</v>
       </c>
       <c r="M6" t="n">
-        <v>-29936.2152730807</v>
+        <v>-29936.21527308076</v>
       </c>
       <c r="N6" t="n">
-        <v>104864.7999607562</v>
+        <v>104864.7999607564</v>
       </c>
       <c r="O6" t="n">
         <v>104864.7999607564</v>
       </c>
       <c r="P6" t="n">
-        <v>60702.19465791086</v>
+        <v>60702.19465791072</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964062</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964062</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964062</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964068</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26741,16 +26741,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26762,22 +26762,22 @@
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010836</v>
+        <v>12.92863350108352</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>65.19728518093785</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>150.3587482644658</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>136.8508936293454</v>
       </c>
       <c r="Y4" t="n">
-        <v>208.8914533365169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>312.3367009864969</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>133.5018207428991</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>12.20730730432228</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>96.92615468724711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2.150891825565793</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>211.0959261528369</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>138.1760596198529</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>11.18263959690353</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29509,19 +29509,19 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="32">
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31127,7 +31127,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31139,10 +31139,10 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>167.900586832999</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392695</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479577</v>
@@ -31364,7 +31364,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31373,7 +31373,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>160.6967431133295</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,22 +31838,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>249.5159911824348</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>341.0678223458549</v>
@@ -31862,7 +31862,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,37 +32075,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>307.9166969394141</v>
       </c>
       <c r="N15" t="n">
-        <v>148.1449823495587</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32315,34 +32315,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>275.92646717522</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>245.2687781552867</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32555,25 +32555,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>148.1449823495586</v>
+        <v>13.93913325719822</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32786,13 +32786,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724846</v>
@@ -32801,16 +32801,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -33023,31 +33023,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,22 +33260,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
         <v>341.0678223458549</v>
@@ -33284,13 +33284,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,37 +33497,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>153.2045953659866</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>288.9613021006076</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,37 +33734,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>380.4309478731437</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>118.6626388367733</v>
       </c>
       <c r="P36" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,25 +33883,25 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33977,31 +33977,31 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>380.4309478731436</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>164.4358785485907</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,25 +34138,25 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,37 +34208,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>105.9315431959337</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,37 +34445,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>238.7786052255658</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,10 +34787,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>392.9827086369145</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>376.1397892206544</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>76.12363756313307</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35571,7 +35571,7 @@
         <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>631.4877267673957</v>
       </c>
       <c r="N15" t="n">
-        <v>496.1456446097789</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>402.5502652134396</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>593.2694404155069</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>380.4309478731436</v>
+        <v>246.2250987807832</v>
       </c>
       <c r="M21" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>71.15710456022276</v>
       </c>
       <c r="M24" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>47.04960104432353</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,10 +36528,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
         <v>39.22569997187476</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>278.2239161437385</v>
       </c>
       <c r="N27" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>88.60167342649406</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>47.04960104432353</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412255</v>
+        <v>67.71102679412265</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043177</v>
+        <v>94.42895660043187</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>152.4580040397287</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>636.9619643608278</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>728.431610133364</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>369.9287136690584</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>728.4316101333638</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>348.9242397741976</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37710,16 +37710,16 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,16 +37780,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>453.9322054561539</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>471.0645707491508</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
